--- a/SourceCode/2023/August2023/Swapna/Task 13/Data.xlsx
+++ b/SourceCode/2023/August2023/Swapna/Task 13/Data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B8E7A6-DF11-46DE-B114-D0275D0924C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B47833-13A5-41D8-A1CC-D3335478DBEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="2" r:id="rId1"/>
@@ -346,7 +346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63469151-FAB4-4783-83FE-1E3AD888BEC6}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -369,7 +369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
